--- a/assets/docs/Exe_9.1D.xlsx
+++ b/assets/docs/Exe_9.1D.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="27729"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -15,8 +15,11 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191028"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -47,22 +50,22 @@
     <t>Other</t>
   </si>
   <si>
+    <t>Frequencies</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
-    <t>Frequencies</t>
+    <t>Area 1</t>
+  </si>
+  <si>
+    <t>Area 2</t>
   </si>
   <si>
     <t>Total</t>
   </si>
   <si>
     <t>Percentages</t>
-  </si>
-  <si>
-    <t>Area 1</t>
-  </si>
-  <si>
-    <t>Area 2</t>
   </si>
 </sst>
 </file>
@@ -72,7 +75,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -156,7 +159,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -540,7 +543,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="en-GB"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -2377,9 +2380,9 @@
       <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="12.6"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="13" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="12.95">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2387,7 +2390,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -2395,7 +2398,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="12.95">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -2403,19 +2406,19 @@
         <v>3</v>
       </c>
       <c r="D3" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="12.95">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="13" x14ac:dyDescent="0.3">
-      <c r="A4" s="2">
-        <v>1</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>4</v>
-      </c>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:6" ht="13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="12.95">
       <c r="A5" s="2">
         <v>1</v>
       </c>
@@ -2424,13 +2427,13 @@
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="13" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="12.95">
       <c r="A6" s="2">
         <v>1</v>
       </c>
@@ -2438,7 +2441,7 @@
         <v>3</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E6" s="2">
         <f>COUNTIF(B2:B71,"A")</f>
@@ -2449,12 +2452,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="12.95">
       <c r="A7" s="2">
         <v>1</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D7" s="1" t="s">
         <v>2</v>
@@ -2468,7 +2471,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:6" ht="13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="12.95">
       <c r="A8" s="2">
         <v>1</v>
       </c>
@@ -2487,7 +2490,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="9" spans="1:6" ht="13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="12.95">
       <c r="A9" s="2">
         <v>1</v>
       </c>
@@ -2495,7 +2498,7 @@
         <v>3</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E9" s="1">
         <f>SUM(E6:E8)</f>
@@ -2506,7 +2509,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="10" spans="1:6" ht="13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="12.95">
       <c r="A10" s="2">
         <v>1</v>
       </c>
@@ -2516,7 +2519,7 @@
       <c r="D10" s="4"/>
       <c r="F10" s="2"/>
     </row>
-    <row r="11" spans="1:6" ht="13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:6" ht="12.95">
       <c r="A11" s="2">
         <v>1</v>
       </c>
@@ -2526,7 +2529,7 @@
       <c r="D11" s="4"/>
       <c r="F11" s="2"/>
     </row>
-    <row r="12" spans="1:6" ht="13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="12.95">
       <c r="A12" s="2">
         <v>1</v>
       </c>
@@ -2534,11 +2537,11 @@
         <v>2</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="F12" s="2"/>
     </row>
-    <row r="13" spans="1:6" ht="13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="12.95">
       <c r="A13" s="2">
         <v>1</v>
       </c>
@@ -2548,7 +2551,7 @@
       <c r="D13" s="4"/>
       <c r="F13" s="2"/>
     </row>
-    <row r="14" spans="1:6" ht="13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:6" ht="12.95">
       <c r="A14" s="2">
         <v>1</v>
       </c>
@@ -2557,21 +2560,21 @@
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" ht="13" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="12.95">
       <c r="A15" s="2">
         <v>1</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D15" s="6" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="E15" s="7">
         <f>100*E6/E$9</f>
@@ -2582,12 +2585,12 @@
         <v>21.111111111111111</v>
       </c>
     </row>
-    <row r="16" spans="1:6" ht="13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:6" ht="12.95">
       <c r="A16" s="2">
         <v>1</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D16" s="6" t="s">
         <v>2</v>
@@ -2601,12 +2604,12 @@
         <v>33.333333333333336</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" ht="12.95">
       <c r="A17" s="2">
         <v>1</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D17" s="6" t="s">
         <v>3</v>
@@ -2620,7 +2623,7 @@
         <v>45.555555555555557</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="12.95">
       <c r="A18" s="2">
         <v>1</v>
       </c>
@@ -2628,7 +2631,7 @@
         <v>2</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E18" s="1">
         <f>SUM(E15:E17)</f>
@@ -2639,15 +2642,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:6">
       <c r="A19" s="2">
         <v>1</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="2">
         <v>1</v>
       </c>
@@ -2655,7 +2658,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:6">
       <c r="A21" s="2">
         <v>1</v>
       </c>
@@ -2663,15 +2666,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:6">
       <c r="A22" s="2">
         <v>1</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="2">
         <v>1</v>
       </c>
@@ -2679,7 +2682,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:6">
       <c r="A24" s="2">
         <v>1</v>
       </c>
@@ -2687,7 +2690,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:6">
       <c r="A25" s="2">
         <v>1</v>
       </c>
@@ -2695,7 +2698,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:6">
       <c r="A26" s="2">
         <v>1</v>
       </c>
@@ -2703,7 +2706,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:6">
       <c r="A27" s="2">
         <v>1</v>
       </c>
@@ -2711,7 +2714,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:6">
       <c r="A28" s="2">
         <v>1</v>
       </c>
@@ -2719,7 +2722,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:6">
       <c r="A29" s="2">
         <v>1</v>
       </c>
@@ -2727,7 +2730,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:6">
       <c r="A30" s="2">
         <v>1</v>
       </c>
@@ -2735,7 +2738,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:6">
       <c r="A31" s="2">
         <v>1</v>
       </c>
@@ -2743,7 +2746,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:6">
       <c r="A32" s="2">
         <v>1</v>
       </c>
@@ -2751,7 +2754,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2">
       <c r="A33" s="2">
         <v>1</v>
       </c>
@@ -2759,7 +2762,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2">
       <c r="A34" s="2">
         <v>1</v>
       </c>
@@ -2767,7 +2770,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2">
       <c r="A35" s="2">
         <v>1</v>
       </c>
@@ -2775,7 +2778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2">
       <c r="A36" s="2">
         <v>1</v>
       </c>
@@ -2783,7 +2786,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2">
       <c r="A37" s="2">
         <v>1</v>
       </c>
@@ -2791,7 +2794,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2">
       <c r="A38" s="2">
         <v>1</v>
       </c>
@@ -2799,7 +2802,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2">
       <c r="A39" s="2">
         <v>1</v>
       </c>
@@ -2807,7 +2810,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2">
       <c r="A40" s="2">
         <v>1</v>
       </c>
@@ -2815,7 +2818,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2">
       <c r="A41" s="2">
         <v>1</v>
       </c>
@@ -2823,7 +2826,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2">
       <c r="A42" s="2">
         <v>1</v>
       </c>
@@ -2831,7 +2834,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2">
       <c r="A43" s="2">
         <v>1</v>
       </c>
@@ -2839,7 +2842,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2">
       <c r="A44" s="2">
         <v>1</v>
       </c>
@@ -2847,7 +2850,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2">
       <c r="A45" s="2">
         <v>1</v>
       </c>
@@ -2855,7 +2858,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2">
       <c r="A46" s="2">
         <v>1</v>
       </c>
@@ -2863,7 +2866,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2">
       <c r="A47" s="2">
         <v>1</v>
       </c>
@@ -2871,7 +2874,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2">
       <c r="A48" s="2">
         <v>1</v>
       </c>
@@ -2879,7 +2882,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2">
       <c r="A49" s="2">
         <v>1</v>
       </c>
@@ -2887,7 +2890,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2">
       <c r="A50" s="2">
         <v>1</v>
       </c>
@@ -2895,7 +2898,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2">
       <c r="A51" s="2">
         <v>1</v>
       </c>
@@ -2903,15 +2906,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2">
       <c r="A52" s="2">
         <v>1</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2">
       <c r="A53" s="2">
         <v>1</v>
       </c>
@@ -2919,15 +2922,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2">
       <c r="A54" s="2">
         <v>1</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2">
       <c r="A55" s="2">
         <v>1</v>
       </c>
@@ -2935,7 +2938,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2">
       <c r="A56" s="2">
         <v>1</v>
       </c>
@@ -2943,7 +2946,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2">
       <c r="A57" s="2">
         <v>1</v>
       </c>
@@ -2951,23 +2954,23 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2">
       <c r="A58" s="2">
         <v>1</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2">
       <c r="A59" s="2">
         <v>1</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2">
       <c r="A60" s="2">
         <v>1</v>
       </c>
@@ -2975,7 +2978,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2">
       <c r="A61" s="2">
         <v>1</v>
       </c>
@@ -2983,7 +2986,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2">
       <c r="A62" s="2">
         <v>1</v>
       </c>
@@ -2991,7 +2994,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2">
       <c r="A63" s="2">
         <v>1</v>
       </c>
@@ -2999,7 +3002,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2">
       <c r="A64" s="2">
         <v>1</v>
       </c>
@@ -3007,7 +3010,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2">
       <c r="A65" s="2">
         <v>1</v>
       </c>
@@ -3015,7 +3018,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2">
       <c r="A66" s="2">
         <v>1</v>
       </c>
@@ -3023,7 +3026,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2">
       <c r="A67" s="2">
         <v>1</v>
       </c>
@@ -3031,7 +3034,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2">
       <c r="A68" s="2">
         <v>1</v>
       </c>
@@ -3039,7 +3042,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2">
       <c r="A69" s="2">
         <v>1</v>
       </c>
@@ -3047,7 +3050,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2">
       <c r="A70" s="2">
         <v>1</v>
       </c>
@@ -3055,7 +3058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2">
       <c r="A71" s="2">
         <v>1</v>
       </c>
@@ -3063,15 +3066,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2">
       <c r="A72" s="2">
         <v>2</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2">
       <c r="A73" s="2">
         <v>2</v>
       </c>
@@ -3079,15 +3082,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2">
       <c r="A74" s="2">
         <v>2</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2">
       <c r="A75" s="2">
         <v>2</v>
       </c>
@@ -3095,15 +3098,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2">
       <c r="A76" s="2">
         <v>2</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2">
       <c r="A77" s="2">
         <v>2</v>
       </c>
@@ -3111,7 +3114,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2">
       <c r="A78" s="2">
         <v>2</v>
       </c>
@@ -3119,7 +3122,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2">
       <c r="A79" s="2">
         <v>2</v>
       </c>
@@ -3127,7 +3130,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2">
       <c r="A80" s="2">
         <v>2</v>
       </c>
@@ -3135,7 +3138,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2">
       <c r="A81" s="2">
         <v>2</v>
       </c>
@@ -3143,7 +3146,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2">
       <c r="A82" s="2">
         <v>2</v>
       </c>
@@ -3151,7 +3154,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2">
       <c r="A83" s="2">
         <v>2</v>
       </c>
@@ -3159,7 +3162,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2">
       <c r="A84" s="2">
         <v>2</v>
       </c>
@@ -3167,7 +3170,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2">
       <c r="A85" s="2">
         <v>2</v>
       </c>
@@ -3175,7 +3178,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2">
       <c r="A86" s="2">
         <v>2</v>
       </c>
@@ -3183,15 +3186,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2">
       <c r="A87" s="2">
         <v>2</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2">
       <c r="A88" s="2">
         <v>2</v>
       </c>
@@ -3199,15 +3202,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2">
       <c r="A89" s="2">
         <v>2</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2">
       <c r="A90" s="2">
         <v>2</v>
       </c>
@@ -3215,7 +3218,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2">
       <c r="A91" s="2">
         <v>2</v>
       </c>
@@ -3223,7 +3226,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2">
       <c r="A92" s="2">
         <v>2</v>
       </c>
@@ -3231,7 +3234,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2">
       <c r="A93" s="2">
         <v>2</v>
       </c>
@@ -3239,15 +3242,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2">
       <c r="A94" s="2">
         <v>2</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2">
       <c r="A95" s="2">
         <v>2</v>
       </c>
@@ -3255,15 +3258,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2">
       <c r="A96" s="2">
         <v>2</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2">
       <c r="A97" s="2">
         <v>2</v>
       </c>
@@ -3271,7 +3274,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2">
       <c r="A98" s="2">
         <v>2</v>
       </c>
@@ -3279,7 +3282,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2">
       <c r="A99" s="2">
         <v>2</v>
       </c>
@@ -3287,7 +3290,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2">
       <c r="A100" s="2">
         <v>2</v>
       </c>
@@ -3295,7 +3298,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2">
       <c r="A101" s="2">
         <v>2</v>
       </c>
@@ -3303,7 +3306,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2">
       <c r="A102" s="2">
         <v>2</v>
       </c>
@@ -3311,7 +3314,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2">
       <c r="A103" s="2">
         <v>2</v>
       </c>
@@ -3319,7 +3322,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2">
       <c r="A104" s="2">
         <v>2</v>
       </c>
@@ -3327,7 +3330,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2">
       <c r="A105" s="2">
         <v>2</v>
       </c>
@@ -3335,23 +3338,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2">
       <c r="A106" s="2">
         <v>2</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2">
       <c r="A107" s="2">
         <v>2</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2">
       <c r="A108" s="2">
         <v>2</v>
       </c>
@@ -3359,7 +3362,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2">
       <c r="A109" s="2">
         <v>2</v>
       </c>
@@ -3367,7 +3370,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2">
       <c r="A110" s="2">
         <v>2</v>
       </c>
@@ -3375,7 +3378,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2">
       <c r="A111" s="2">
         <v>2</v>
       </c>
@@ -3383,15 +3386,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2">
       <c r="A112" s="2">
         <v>2</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2">
       <c r="A113" s="2">
         <v>2</v>
       </c>
@@ -3399,7 +3402,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2">
       <c r="A114" s="2">
         <v>2</v>
       </c>
@@ -3407,7 +3410,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2">
       <c r="A115" s="2">
         <v>2</v>
       </c>
@@ -3415,7 +3418,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2">
       <c r="A116" s="2">
         <v>2</v>
       </c>
@@ -3423,7 +3426,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2">
       <c r="A117" s="2">
         <v>2</v>
       </c>
@@ -3431,7 +3434,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2">
       <c r="A118" s="2">
         <v>2</v>
       </c>
@@ -3439,7 +3442,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2">
       <c r="A119" s="2">
         <v>2</v>
       </c>
@@ -3447,7 +3450,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2">
       <c r="A120" s="2">
         <v>2</v>
       </c>
@@ -3455,7 +3458,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2">
       <c r="A121" s="2">
         <v>2</v>
       </c>
@@ -3463,7 +3466,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2">
       <c r="A122" s="2">
         <v>2</v>
       </c>
@@ -3471,7 +3474,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2">
       <c r="A123" s="2">
         <v>2</v>
       </c>
@@ -3479,7 +3482,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2">
       <c r="A124" s="2">
         <v>2</v>
       </c>
@@ -3487,7 +3490,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2">
       <c r="A125" s="2">
         <v>2</v>
       </c>
@@ -3495,15 +3498,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2">
       <c r="A126" s="2">
         <v>2</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2">
       <c r="A127" s="2">
         <v>2</v>
       </c>
@@ -3511,7 +3514,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2">
       <c r="A128" s="2">
         <v>2</v>
       </c>
@@ -3519,23 +3522,23 @@
         <v>2</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2">
       <c r="A129" s="2">
         <v>2</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2">
       <c r="A130" s="2">
         <v>2</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2">
       <c r="A131" s="2">
         <v>2</v>
       </c>
@@ -3543,7 +3546,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2">
       <c r="A132" s="2">
         <v>2</v>
       </c>
@@ -3551,7 +3554,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2">
       <c r="A133" s="2">
         <v>2</v>
       </c>
@@ -3559,7 +3562,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2">
       <c r="A134" s="2">
         <v>2</v>
       </c>
@@ -3567,7 +3570,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2">
       <c r="A135" s="2">
         <v>2</v>
       </c>
@@ -3575,7 +3578,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2">
       <c r="A136" s="2">
         <v>2</v>
       </c>
@@ -3583,7 +3586,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2">
       <c r="A137" s="2">
         <v>2</v>
       </c>
@@ -3591,15 +3594,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2">
       <c r="A138" s="2">
         <v>2</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2">
       <c r="A139" s="2">
         <v>2</v>
       </c>
@@ -3607,15 +3610,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2">
       <c r="A140" s="2">
         <v>2</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2">
       <c r="A141" s="2">
         <v>2</v>
       </c>
@@ -3623,7 +3626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2">
       <c r="A142" s="2">
         <v>2</v>
       </c>
@@ -3631,7 +3634,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2">
       <c r="A143" s="2">
         <v>2</v>
       </c>
@@ -3639,7 +3642,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2">
       <c r="A144" s="2">
         <v>2</v>
       </c>
@@ -3647,7 +3650,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2">
       <c r="A145" s="2">
         <v>2</v>
       </c>
@@ -3655,7 +3658,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2">
       <c r="A146" s="2">
         <v>2</v>
       </c>
@@ -3663,15 +3666,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2">
       <c r="A147" s="2">
         <v>2</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2">
       <c r="A148" s="2">
         <v>2</v>
       </c>
@@ -3679,15 +3682,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2">
       <c r="A149" s="2">
         <v>2</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2">
       <c r="A150" s="2">
         <v>2</v>
       </c>
@@ -3695,7 +3698,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2">
       <c r="A151" s="2">
         <v>2</v>
       </c>
@@ -3703,7 +3706,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2">
       <c r="A152" s="2">
         <v>2</v>
       </c>
@@ -3711,7 +3714,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2">
       <c r="A153" s="2">
         <v>2</v>
       </c>
@@ -3719,7 +3722,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2">
       <c r="A154" s="2">
         <v>2</v>
       </c>
@@ -3727,15 +3730,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2">
       <c r="A155" s="2">
         <v>2</v>
       </c>
       <c r="B155" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2">
       <c r="A156" s="2">
         <v>2</v>
       </c>
@@ -3743,15 +3746,15 @@
         <v>2</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2">
       <c r="A157" s="2">
         <v>2</v>
       </c>
       <c r="B157" s="2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2">
       <c r="A158" s="2">
         <v>2</v>
       </c>
@@ -3759,7 +3762,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2">
       <c r="A159" s="2">
         <v>2</v>
       </c>
@@ -3767,7 +3770,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2">
       <c r="A160" s="2">
         <v>2</v>
       </c>
@@ -3775,7 +3778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2">
       <c r="A161" s="2">
         <v>2</v>
       </c>
